--- a/jlcpcb/assembly/POS-plain60-flex-edition.xlsx
+++ b/jlcpcb/assembly/POS-plain60-flex-edition.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="206">
   <si>
     <t>POS-plain60-flex-edition</t>
   </si>
@@ -614,6 +614,21 @@
   </si>
   <si>
     <t>-54.642061</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>ProS3</t>
+  </si>
+  <si>
+    <t>ProS3_TH</t>
+  </si>
+  <si>
+    <t>28.838287</t>
+  </si>
+  <si>
+    <t>-23.400061</t>
   </si>
 </sst>
 </file>
@@ -1893,7 +1908,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G84"/>
+  <dimension ref="A2:G85"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -3829,6 +3844,29 @@
         <v>14</v>
       </c>
     </row>
+    <row r="85" ht="20.05" customHeight="1">
+      <c r="A85" t="s" s="7">
+        <v>201</v>
+      </c>
+      <c r="B85" t="s" s="8">
+        <v>202</v>
+      </c>
+      <c r="C85" t="s" s="9">
+        <v>203</v>
+      </c>
+      <c r="D85" t="s" s="9">
+        <v>204</v>
+      </c>
+      <c r="E85" t="s" s="9">
+        <v>205</v>
+      </c>
+      <c r="F85" t="s" s="9">
+        <v>13</v>
+      </c>
+      <c r="G85" t="s" s="9">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
